--- a/public/excel/Data.xlsx
+++ b/public/excel/Data.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\PhpstormProjects\SmagenAfOl\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaiblakwalther/PhpstormProjects/SmagenAfOl/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2982403-F27A-45E0-BD81-88098692C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B02F5-1B60-7447-AC7F-519182EDE8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="860" activeTab="3" xr2:uid="{0975E68D-5403-44D8-934E-7DE8F0E22F1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="860" activeTab="2" xr2:uid="{0975E68D-5403-44D8-934E-7DE8F0E22F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Øl" sheetId="3" r:id="rId1"/>
     <sheet name="Bryggerier" sheetId="2" r:id="rId2"/>
-    <sheet name="Øltyper" sheetId="1" r:id="rId3"/>
-    <sheet name="Spiritus" sheetId="5" r:id="rId4"/>
-    <sheet name="Destilleri" sheetId="6" r:id="rId5"/>
-    <sheet name="Spiritustyper" sheetId="7" r:id="rId6"/>
+    <sheet name="Spiritus" sheetId="5" r:id="rId3"/>
+    <sheet name="Destilleri" sheetId="6" r:id="rId4"/>
+    <sheet name="Spiritustyper" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -183,21 +182,6 @@
   </si>
   <si>
     <t>Newbarns</t>
-  </si>
-  <si>
-    <t>Pilsner</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>Ale</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Alcohol Free</t>
   </si>
   <si>
     <t>Belgisk bryggeri</t>
@@ -298,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,18 +584,18 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -663,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -689,7 +673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -712,7 +696,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -735,7 +719,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -761,7 +745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -784,7 +768,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -810,7 +794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -836,7 +820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -859,7 +843,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -882,7 +866,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -918,13 +902,13 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,76 +916,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1010,74 +994,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FDBBF-6536-4CAE-9662-158E49D9E09A}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA88EDEA-A3B1-4410-99FC-C6B720A2B9C5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1085,16 +1001,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1117,18 +1033,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>42</v>
@@ -1142,7 +1058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623F0521-B59A-4A2F-85B2-8AE3D75F409E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1150,13 +1066,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,12 +1080,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B70CB9-70F5-43EA-89D0-FCC2103DFE60}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1185,21 +1101,21 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/Data.xlsx
+++ b/public/excel/Data.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaiblakwalther/PhpstormProjects/SmagenAfOl/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B02F5-1B60-7447-AC7F-519182EDE8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF5A7C4-A7EF-0147-A735-6605C1FF2DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="860" activeTab="2" xr2:uid="{0975E68D-5403-44D8-934E-7DE8F0E22F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="860" xr2:uid="{0975E68D-5403-44D8-934E-7DE8F0E22F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Øl" sheetId="3" r:id="rId1"/>
     <sheet name="Bryggerier" sheetId="2" r:id="rId2"/>
     <sheet name="Spiritus" sheetId="5" r:id="rId3"/>
     <sheet name="Destilleri" sheetId="6" r:id="rId4"/>
-    <sheet name="Spiritustyper" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -224,9 +223,6 @@
   </si>
   <si>
     <t>En speciel gin med dunhammer</t>
-  </si>
-  <si>
-    <t>Whiskey</t>
   </si>
 </sst>
 </file>
@@ -580,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B35EA4-B81E-4A51-94E4-15F7665018F7}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -997,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA88EDEA-A3B1-4410-99FC-C6B720A2B9C5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1091,34 +1087,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B70CB9-70F5-43EA-89D0-FCC2103DFE60}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/excel/Data.xlsx
+++ b/public/excel/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaiblakwalther/PhpstormProjects/SmagenAfOl/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF5A7C4-A7EF-0147-A735-6605C1FF2DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318FCFA-8902-A74F-B538-797145F4E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="860" xr2:uid="{0975E68D-5403-44D8-934E-7DE8F0E22F1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="860" xr2:uid="{0975E68D-5403-44D8-934E-7DE8F0E22F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Øl" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Klavs</t>
-  </si>
-  <si>
-    <t>Meget nørdet dessert øl.</t>
   </si>
   <si>
     <t>Business As Usual</t>
@@ -577,7 +574,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,9 +817,6 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -841,16 +835,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -864,16 +858,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -917,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -925,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -949,7 +943,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -957,7 +951,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -965,23 +959,23 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1031,16 +1025,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
       </c>
       <c r="E2">
         <v>42</v>
@@ -1078,10 +1072,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
